--- a/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_15.08.2024_output.xlsx
+++ b/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_15.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pupse</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C2" t="b">
@@ -503,13 +503,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>VT</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>19.901</v>
+      </c>
+      <c r="H2" t="n">
+        <v>19.979</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0779999999999994</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -517,7 +525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SBERP</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C3" t="b">
@@ -528,7 +536,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,16 +545,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>278.22</v>
+        <v>20.067</v>
       </c>
       <c r="H3" t="n">
-        <v>278.77</v>
+        <v>19.966</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5499999999999545</v>
+        <v>0.1009999999999991</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -555,7 +563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SBERP</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C4" t="b">
@@ -566,7 +574,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -575,16 +583,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>279.09</v>
+        <v>19.864</v>
       </c>
       <c r="H4" t="n">
-        <v>278.37</v>
+        <v>19.937</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7199999999999704</v>
+        <v>0.0730000000000004</v>
       </c>
       <c r="J4" t="n">
-        <v>0.26</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="5">
@@ -593,7 +601,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SBERP</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C5" t="b">
@@ -613,16 +621,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>277.7</v>
+        <v>19.854</v>
       </c>
       <c r="H5" t="n">
-        <v>277.92</v>
+        <v>19.901</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2200000000000273</v>
+        <v>0.0470000000000006</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="6">
@@ -631,7 +639,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SBERP</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C6" t="b">
@@ -642,7 +650,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,16 +659,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>276.68</v>
+        <v>58.81</v>
       </c>
       <c r="H6" t="n">
-        <v>277.4</v>
+        <v>58.89</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7199999999999704</v>
+        <v>-0.07999999999999829</v>
       </c>
       <c r="J6" t="n">
-        <v>0.26</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="7">
@@ -669,7 +677,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SBERP</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -680,7 +688,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -689,16 +697,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>277.75</v>
+        <v>1386.8</v>
       </c>
       <c r="H7" t="n">
-        <v>277.34</v>
+        <v>1391</v>
       </c>
       <c r="I7" t="n">
-        <v>0.410000000000025</v>
+        <v>4.200000000000045</v>
       </c>
       <c r="J7" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8">
@@ -707,7 +715,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SBERP</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -718,7 +726,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -727,16 +735,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>277.28</v>
+        <v>1395</v>
       </c>
       <c r="H8" t="n">
-        <v>277.42</v>
+        <v>1395</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1400000000000432</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +753,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -765,16 +773,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>278.22</v>
+        <v>1391.6</v>
       </c>
       <c r="H9" t="n">
-        <v>278.77</v>
+        <v>1396.8</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5499999999999545</v>
+        <v>5.200000000000045</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="10">
@@ -783,7 +791,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -803,13 +811,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>279.09</v>
+        <v>1397</v>
       </c>
       <c r="H10" t="n">
-        <v>278.37</v>
+        <v>1393.4</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7199999999999704</v>
+        <v>3.599999999999909</v>
       </c>
       <c r="J10" t="n">
         <v>0.26</v>
@@ -821,7 +829,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -832,7 +840,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -841,16 +849,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>277.7</v>
+        <v>11.994</v>
       </c>
       <c r="H11" t="n">
-        <v>277.92</v>
+        <v>11.973</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2200000000000273</v>
+        <v>0.02099999999999902</v>
       </c>
       <c r="J11" t="n">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="12">
@@ -859,7 +867,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="C12" t="b">
@@ -870,7 +878,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -879,16 +887,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>276.68</v>
+        <v>12.021</v>
       </c>
       <c r="H12" t="n">
-        <v>277.4</v>
+        <v>12.053</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7199999999999704</v>
+        <v>-0.03200000000000003</v>
       </c>
       <c r="J12" t="n">
-        <v>0.26</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="13">
@@ -897,7 +905,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="C13" t="b">
@@ -908,7 +916,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -917,16 +925,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>277.75</v>
+        <v>12.041</v>
       </c>
       <c r="H13" t="n">
-        <v>277.34</v>
+        <v>12.053</v>
       </c>
       <c r="I13" t="n">
-        <v>0.410000000000025</v>
+        <v>0.01200000000000045</v>
       </c>
       <c r="J13" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14">
@@ -935,7 +943,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C14" t="b">
@@ -955,16 +963,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>277.28</v>
+        <v>128.89</v>
       </c>
       <c r="H14" t="n">
-        <v>277.42</v>
+        <v>128.07</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1400000000000432</v>
+        <v>-0.8199999999999932</v>
       </c>
       <c r="J14" t="n">
-        <v>0.05</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="15">
@@ -973,7 +981,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="C15" t="b">
@@ -993,16 +1001,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>278.36</v>
+        <v>124.76</v>
       </c>
       <c r="H15" t="n">
-        <v>279.56</v>
+        <v>125.34</v>
       </c>
       <c r="I15" t="n">
-        <v>1.199999999999989</v>
+        <v>0.5799999999999983</v>
       </c>
       <c r="J15" t="n">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="16">
@@ -1011,7 +1019,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="C16" t="b">
@@ -1031,16 +1039,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>278.77</v>
+        <v>125.24</v>
       </c>
       <c r="H16" t="n">
-        <v>278.05</v>
+        <v>125.46</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.7199999999999704</v>
+        <v>0.2199999999999989</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.26</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="17">
@@ -1049,13 +1057,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>long</t>
@@ -1067,16 +1077,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>277.48</v>
+        <v>125</v>
       </c>
       <c r="H17" t="n">
-        <v>277.33</v>
+        <v>125.36</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1500000000000341</v>
+        <v>0.3599999999999994</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.05</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="18">
@@ -1085,7 +1095,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C18" t="b">
@@ -1105,16 +1115,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>128.89</v>
+        <v>6355.5</v>
       </c>
       <c r="H18" t="n">
-        <v>128.07</v>
+        <v>6384.5</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.8199999999999932</v>
+        <v>29</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.64</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="19">
@@ -1123,16 +1133,18 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1141,16 +1153,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>127.44</v>
+        <v>6402</v>
       </c>
       <c r="H19" t="n">
-        <v>127.34</v>
+        <v>6378.5</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.09999999999999432</v>
+        <v>23.5</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.08</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="20">
@@ -1179,16 +1191,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>6355.5</v>
+        <v>6369</v>
       </c>
       <c r="H20" t="n">
-        <v>6384.5</v>
+        <v>6358.5</v>
       </c>
       <c r="I20" t="n">
-        <v>29</v>
+        <v>-10.5</v>
       </c>
       <c r="J20" t="n">
-        <v>0.46</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="21">
@@ -1208,7 +1220,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1217,16 +1229,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>6402</v>
+        <v>6340.5</v>
       </c>
       <c r="H21" t="n">
-        <v>6378.5</v>
+        <v>6352</v>
       </c>
       <c r="I21" t="n">
-        <v>23.5</v>
+        <v>11.5</v>
       </c>
       <c r="J21" t="n">
-        <v>0.37</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="22">
@@ -1235,7 +1247,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C22" t="b">
@@ -1246,7 +1258,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1255,16 +1267,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>6369</v>
+        <v>49.895</v>
       </c>
       <c r="H22" t="n">
-        <v>6358.5</v>
+        <v>49.715</v>
       </c>
       <c r="I22" t="n">
-        <v>-10.5</v>
+        <v>0.1799999999999997</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.16</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="23">
@@ -1273,7 +1285,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C23" t="b">
@@ -1284,7 +1296,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1293,16 +1305,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>6340.5</v>
+        <v>49.88</v>
       </c>
       <c r="H23" t="n">
-        <v>6352</v>
+        <v>49.96</v>
       </c>
       <c r="I23" t="n">
-        <v>11.5</v>
+        <v>-0.07999999999999829</v>
       </c>
       <c r="J23" t="n">
-        <v>0.18</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="24">
@@ -1311,7 +1323,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="C24" t="b">
@@ -1322,7 +1334,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1331,16 +1343,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>498</v>
+        <v>221.8</v>
       </c>
       <c r="H24" t="n">
-        <v>495.7</v>
+        <v>222.55</v>
       </c>
       <c r="I24" t="n">
-        <v>2.300000000000011</v>
+        <v>0.75</v>
       </c>
       <c r="J24" t="n">
-        <v>0.46</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="25">
@@ -1349,7 +1361,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="C25" t="b">
@@ -1360,7 +1372,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1369,16 +1381,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>494.65</v>
+        <v>223.27</v>
       </c>
       <c r="H25" t="n">
-        <v>495.55</v>
+        <v>223.45</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9000000000000341</v>
+        <v>-0.1799999999999784</v>
       </c>
       <c r="J25" t="n">
-        <v>0.18</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="26">
@@ -1387,7 +1399,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="C26" t="b">
@@ -1407,16 +1419,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>496.3</v>
+        <v>224.41</v>
       </c>
       <c r="H26" t="n">
-        <v>495.45</v>
+        <v>223.83</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8500000000000227</v>
+        <v>0.5799999999999841</v>
       </c>
       <c r="J26" t="n">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="27">
@@ -1425,16 +1437,18 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1443,16 +1457,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>494.9</v>
+        <v>224.7</v>
       </c>
       <c r="H27" t="n">
-        <v>495.3</v>
+        <v>224.33</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4000000000000341</v>
+        <v>0.3699999999999761</v>
       </c>
       <c r="J27" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="28">
@@ -1461,7 +1475,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>MRKP</t>
         </is>
       </c>
       <c r="C28" t="b">
@@ -1472,7 +1486,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1481,16 +1495,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>221.8</v>
+        <v>0.3067</v>
       </c>
       <c r="H28" t="n">
-        <v>222.55</v>
+        <v>0.3032</v>
       </c>
       <c r="I28" t="n">
-        <v>0.75</v>
+        <v>0.003499999999999948</v>
       </c>
       <c r="J28" t="n">
-        <v>0.34</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="29">
@@ -1499,7 +1513,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="C29" t="b">
@@ -1510,7 +1524,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1519,16 +1533,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>223.27</v>
+        <v>150.4</v>
       </c>
       <c r="H29" t="n">
-        <v>223.45</v>
+        <v>151.65</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.1799999999999784</v>
+        <v>1.25</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.08</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="30">
@@ -1537,7 +1551,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="C30" t="b">
@@ -1548,7 +1562,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1557,16 +1571,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>224.41</v>
+        <v>150.57</v>
       </c>
       <c r="H30" t="n">
-        <v>223.83</v>
+        <v>151.37</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5799999999999841</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="J30" t="n">
-        <v>0.26</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="31">
@@ -1575,7 +1589,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="C31" t="b">
@@ -1586,7 +1600,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1595,16 +1609,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>224.7</v>
+        <v>150.64</v>
       </c>
       <c r="H31" t="n">
-        <v>224.33</v>
+        <v>150.86</v>
       </c>
       <c r="I31" t="n">
-        <v>0.3699999999999761</v>
+        <v>0.2200000000000273</v>
       </c>
       <c r="J31" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="32">
@@ -1613,7 +1627,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C32" t="b">
@@ -1633,16 +1647,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1027.2</v>
+        <v>162.8</v>
       </c>
       <c r="H32" t="n">
-        <v>1033.4</v>
+        <v>162.98</v>
       </c>
       <c r="I32" t="n">
-        <v>6.200000000000045</v>
+        <v>0.1799999999999784</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="33">
@@ -1651,7 +1665,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C33" t="b">
@@ -1671,16 +1685,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1037.8</v>
+        <v>164.26</v>
       </c>
       <c r="H33" t="n">
-        <v>1037.8</v>
+        <v>163.54</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.7199999999999989</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="34">
@@ -1689,7 +1703,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C34" t="b">
@@ -1709,16 +1723,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1034.6</v>
+        <v>163.36</v>
       </c>
       <c r="H34" t="n">
-        <v>1037.2</v>
+        <v>163.98</v>
       </c>
       <c r="I34" t="n">
-        <v>2.600000000000136</v>
+        <v>0.6199999999999761</v>
       </c>
       <c r="J34" t="n">
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="35">
@@ -1733,7 +1747,9 @@
       <c r="C35" t="b">
         <v>1</v>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>long</t>
@@ -1745,16 +1761,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1032</v>
+        <v>1027.2</v>
       </c>
       <c r="H35" t="n">
-        <v>1032.4</v>
+        <v>1033.4</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4000000000000909</v>
+        <v>6.200000000000045</v>
       </c>
       <c r="J35" t="n">
-        <v>0.04</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="36">
@@ -1763,7 +1779,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C36" t="b">
@@ -1783,16 +1799,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>11.994</v>
+        <v>1037.8</v>
       </c>
       <c r="H36" t="n">
-        <v>11.973</v>
+        <v>1037.8</v>
       </c>
       <c r="I36" t="n">
-        <v>0.02099999999999902</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1801,7 +1817,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C37" t="b">
@@ -1812,7 +1828,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1821,16 +1837,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>12.021</v>
+        <v>1034.6</v>
       </c>
       <c r="H37" t="n">
-        <v>12.053</v>
+        <v>1037.2</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.03200000000000003</v>
+        <v>2.600000000000136</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.27</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="38">
@@ -1839,7 +1855,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C38" t="b">
@@ -1850,7 +1866,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1859,16 +1875,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>12.041</v>
+        <v>498</v>
       </c>
       <c r="H38" t="n">
-        <v>12.053</v>
+        <v>495.7</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01200000000000045</v>
+        <v>2.300000000000011</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="39">
@@ -1877,7 +1893,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C39" t="b">
@@ -1897,16 +1913,16 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>124.76</v>
+        <v>494.65</v>
       </c>
       <c r="H39" t="n">
-        <v>125.34</v>
+        <v>495.55</v>
       </c>
       <c r="I39" t="n">
-        <v>0.5799999999999983</v>
+        <v>0.9000000000000341</v>
       </c>
       <c r="J39" t="n">
-        <v>0.46</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="40">
@@ -1915,7 +1931,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C40" t="b">
@@ -1926,7 +1942,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1935,16 +1951,16 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>125.24</v>
+        <v>496.3</v>
       </c>
       <c r="H40" t="n">
-        <v>125.46</v>
+        <v>495.45</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2199999999999989</v>
+        <v>0.8500000000000227</v>
       </c>
       <c r="J40" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="41">
@@ -1953,7 +1969,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>SBERP</t>
         </is>
       </c>
       <c r="C41" t="b">
@@ -1973,16 +1989,16 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>125</v>
+        <v>278.22</v>
       </c>
       <c r="H41" t="n">
-        <v>125.36</v>
+        <v>278.77</v>
       </c>
       <c r="I41" t="n">
-        <v>0.3599999999999994</v>
+        <v>0.5499999999999545</v>
       </c>
       <c r="J41" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="42">
@@ -1991,16 +2007,18 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>SBERP</t>
         </is>
       </c>
       <c r="C42" t="b">
         <v>1</v>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2009,16 +2027,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>125.04</v>
+        <v>279.09</v>
       </c>
       <c r="H42" t="n">
-        <v>125</v>
+        <v>278.37</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.04000000000000625</v>
+        <v>0.7199999999999704</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.03</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="43">
@@ -2027,7 +2045,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>SBERP</t>
         </is>
       </c>
       <c r="C43" t="b">
@@ -2047,16 +2065,16 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>162.8</v>
+        <v>277.7</v>
       </c>
       <c r="H43" t="n">
-        <v>162.98</v>
+        <v>277.92</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1799999999999784</v>
+        <v>0.2200000000000273</v>
       </c>
       <c r="J43" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="44">
@@ -2065,7 +2083,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>SBERP</t>
         </is>
       </c>
       <c r="C44" t="b">
@@ -2076,7 +2094,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2085,16 +2103,16 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>164.26</v>
+        <v>276.68</v>
       </c>
       <c r="H44" t="n">
-        <v>163.54</v>
+        <v>277.4</v>
       </c>
       <c r="I44" t="n">
-        <v>0.7199999999999989</v>
+        <v>0.7199999999999704</v>
       </c>
       <c r="J44" t="n">
-        <v>0.44</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="45">
@@ -2103,7 +2121,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>SBERP</t>
         </is>
       </c>
       <c r="C45" t="b">
@@ -2114,7 +2132,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2123,16 +2141,16 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>163.36</v>
+        <v>277.75</v>
       </c>
       <c r="H45" t="n">
-        <v>163.98</v>
+        <v>277.34</v>
       </c>
       <c r="I45" t="n">
-        <v>0.6199999999999761</v>
+        <v>0.410000000000025</v>
       </c>
       <c r="J45" t="n">
-        <v>0.38</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="46">
@@ -2141,13 +2159,15 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>SBERP</t>
         </is>
       </c>
       <c r="C46" t="b">
         <v>1</v>
       </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>long</t>
@@ -2159,16 +2179,16 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>162.92</v>
+        <v>277.28</v>
       </c>
       <c r="H46" t="n">
-        <v>161.8</v>
+        <v>277.42</v>
       </c>
       <c r="I46" t="n">
-        <v>-1.119999999999976</v>
+        <v>0.1400000000000432</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.6899999999999999</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="47">
@@ -2177,7 +2197,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C47" t="b">
@@ -2188,7 +2208,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2197,16 +2217,16 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>49.895</v>
+        <v>278.36</v>
       </c>
       <c r="H47" t="n">
-        <v>49.715</v>
+        <v>279.56</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1799999999999997</v>
+        <v>1.199999999999989</v>
       </c>
       <c r="J47" t="n">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="48">
@@ -2215,7 +2235,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C48" t="b">
@@ -2226,7 +2246,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2235,16 +2255,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>49.88</v>
+        <v>278.77</v>
       </c>
       <c r="H48" t="n">
-        <v>49.96</v>
+        <v>278.05</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.07999999999999829</v>
+        <v>-0.7199999999999704</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.16</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="49">
@@ -2253,13 +2273,15 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="C49" t="b">
         <v>1</v>
       </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>long</t>
@@ -2271,16 +2293,16 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>49.96</v>
+        <v>55.6</v>
       </c>
       <c r="H49" t="n">
-        <v>49.96</v>
+        <v>55.56</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>-0.03999999999999915</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="50">
@@ -2289,7 +2311,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="C50" t="b">
@@ -2300,7 +2322,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2309,16 +2331,16 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1386.8</v>
+        <v>683.45</v>
       </c>
       <c r="H50" t="n">
-        <v>1391</v>
+        <v>681.15</v>
       </c>
       <c r="I50" t="n">
-        <v>4.200000000000045</v>
+        <v>2.300000000000068</v>
       </c>
       <c r="J50" t="n">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="51">
@@ -2327,7 +2349,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="C51" t="b">
@@ -2338,7 +2360,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2347,16 +2369,16 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1395</v>
+        <v>678.1</v>
       </c>
       <c r="H51" t="n">
-        <v>1395</v>
+        <v>679.8</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1.699999999999932</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="52">
@@ -2365,7 +2387,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="C52" t="b">
@@ -2385,16 +2407,16 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1391.6</v>
+        <v>155.2</v>
       </c>
       <c r="H52" t="n">
-        <v>1396.8</v>
+        <v>156.08</v>
       </c>
       <c r="I52" t="n">
-        <v>5.200000000000045</v>
+        <v>0.8800000000000239</v>
       </c>
       <c r="J52" t="n">
-        <v>0.37</v>
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -2403,7 +2425,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="C53" t="b">
@@ -2423,16 +2445,16 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1397</v>
+        <v>157.14</v>
       </c>
       <c r="H53" t="n">
-        <v>1393.4</v>
+        <v>156.3</v>
       </c>
       <c r="I53" t="n">
-        <v>3.599999999999909</v>
+        <v>0.839999999999975</v>
       </c>
       <c r="J53" t="n">
-        <v>0.26</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="54">
@@ -2441,13 +2463,15 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C54" t="b">
         <v>1</v>
       </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>long</t>
@@ -2459,16 +2483,16 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1391.2</v>
+        <v>99.20999999999999</v>
       </c>
       <c r="H54" t="n">
-        <v>1386.4</v>
+        <v>99.53</v>
       </c>
       <c r="I54" t="n">
-        <v>-4.799999999999955</v>
+        <v>0.3200000000000074</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.35</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="55">
@@ -2477,7 +2501,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="C55" t="b">
@@ -2497,16 +2521,16 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>58.81</v>
+        <v>99.94</v>
       </c>
       <c r="H55" t="n">
-        <v>58.89</v>
+        <v>99.59</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.07999999999999829</v>
+        <v>0.3499999999999943</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.14</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="56">
@@ -2535,16 +2559,16 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>99.20999999999999</v>
+        <v>99.14</v>
       </c>
       <c r="H56" t="n">
-        <v>99.53</v>
+        <v>99.5</v>
       </c>
       <c r="I56" t="n">
-        <v>0.3200000000000074</v>
+        <v>0.3599999999999994</v>
       </c>
       <c r="J56" t="n">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="57">
@@ -2573,16 +2597,16 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>99.94</v>
+        <v>99.67</v>
       </c>
       <c r="H57" t="n">
-        <v>99.59</v>
+        <v>99.45999999999999</v>
       </c>
       <c r="I57" t="n">
-        <v>0.3499999999999943</v>
+        <v>0.210000000000008</v>
       </c>
       <c r="J57" t="n">
-        <v>0.35</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="58">
@@ -2591,15 +2615,13 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="C58" t="b">
         <v>1</v>
       </c>
-      <c r="D58" t="b">
-        <v>1</v>
-      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
           <t>long</t>
@@ -2611,16 +2633,16 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>99.14</v>
+        <v>19.811</v>
       </c>
       <c r="H58" t="n">
-        <v>99.5</v>
+        <v>19.826</v>
       </c>
       <c r="I58" t="n">
-        <v>0.3599999999999994</v>
+        <v>0.01500000000000057</v>
       </c>
       <c r="J58" t="n">
-        <v>0.36</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="59">
@@ -2629,18 +2651,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C59" t="b">
         <v>1</v>
       </c>
-      <c r="D59" t="b">
-        <v>1</v>
-      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2649,16 +2669,16 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>99.67</v>
+        <v>1391.2</v>
       </c>
       <c r="H59" t="n">
-        <v>99.45999999999999</v>
+        <v>1386.4</v>
       </c>
       <c r="I59" t="n">
-        <v>0.210000000000008</v>
+        <v>-4.799999999999955</v>
       </c>
       <c r="J59" t="n">
-        <v>0.21</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="60">
@@ -2667,15 +2687,13 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C60" t="b">
         <v>1</v>
       </c>
-      <c r="D60" t="b">
-        <v>1</v>
-      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
           <t>long</t>
@@ -2687,16 +2705,16 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>55.6</v>
+        <v>127.44</v>
       </c>
       <c r="H60" t="n">
-        <v>55.56</v>
+        <v>127.34</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.03999999999999915</v>
+        <v>-0.09999999999999432</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.06999999999999999</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="61">
@@ -2705,15 +2723,13 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="C61" t="b">
         <v>1</v>
       </c>
-      <c r="D61" t="b">
-        <v>1</v>
-      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
           <t>long</t>
@@ -2725,16 +2741,16 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>155.2</v>
+        <v>125.04</v>
       </c>
       <c r="H61" t="n">
-        <v>156.08</v>
+        <v>125</v>
       </c>
       <c r="I61" t="n">
-        <v>0.8800000000000239</v>
+        <v>-0.04000000000000625</v>
       </c>
       <c r="J61" t="n">
-        <v>0.5700000000000001</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="62">
@@ -2743,18 +2759,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C62" t="b">
         <v>1</v>
       </c>
-      <c r="D62" t="b">
-        <v>1</v>
-      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2763,16 +2777,16 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>157.14</v>
+        <v>49.96</v>
       </c>
       <c r="H62" t="n">
-        <v>156.3</v>
+        <v>49.96</v>
       </c>
       <c r="I62" t="n">
-        <v>0.839999999999975</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2781,7 +2795,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C63" t="b">
@@ -2799,16 +2813,16 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>155.36</v>
+        <v>162.92</v>
       </c>
       <c r="H63" t="n">
-        <v>154.12</v>
+        <v>161.8</v>
       </c>
       <c r="I63" t="n">
-        <v>-1.240000000000009</v>
+        <v>-1.119999999999976</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.8</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="64">
@@ -2817,18 +2831,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MRKP</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C64" t="b">
         <v>1</v>
       </c>
-      <c r="D64" t="b">
-        <v>1</v>
-      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2837,16 +2849,16 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.3067</v>
+        <v>1032</v>
       </c>
       <c r="H64" t="n">
-        <v>0.3032</v>
+        <v>1032.4</v>
       </c>
       <c r="I64" t="n">
-        <v>0.003500000000000003</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="J64" t="n">
-        <v>1.14</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="65">
@@ -2855,15 +2867,13 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C65" t="b">
         <v>1</v>
       </c>
-      <c r="D65" t="b">
-        <v>1</v>
-      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
           <t>long</t>
@@ -2875,16 +2885,16 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>19.901</v>
+        <v>494.9</v>
       </c>
       <c r="H65" t="n">
-        <v>19.979</v>
+        <v>495.3</v>
       </c>
       <c r="I65" t="n">
-        <v>0.0779999999999994</v>
+        <v>0.4000000000000341</v>
       </c>
       <c r="J65" t="n">
-        <v>0.39</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="66">
@@ -2893,18 +2903,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C66" t="b">
         <v>1</v>
       </c>
-      <c r="D66" t="b">
-        <v>1</v>
-      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2913,16 +2921,16 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>20.067</v>
+        <v>277.48</v>
       </c>
       <c r="H66" t="n">
-        <v>19.966</v>
+        <v>277.33</v>
       </c>
       <c r="I66" t="n">
-        <v>0.1009999999999991</v>
+        <v>-0.1500000000000341</v>
       </c>
       <c r="J66" t="n">
-        <v>0.5</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="67">
@@ -2931,18 +2939,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="C67" t="b">
         <v>1</v>
       </c>
-      <c r="D67" t="b">
-        <v>1</v>
-      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2951,16 +2957,16 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>19.864</v>
+        <v>678.5</v>
       </c>
       <c r="H67" t="n">
-        <v>19.937</v>
+        <v>679.3</v>
       </c>
       <c r="I67" t="n">
-        <v>0.0730000000000004</v>
+        <v>-0.7999999999999545</v>
       </c>
       <c r="J67" t="n">
-        <v>0.37</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="68">
@@ -2969,15 +2975,13 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="C68" t="b">
         <v>1</v>
       </c>
-      <c r="D68" t="b">
-        <v>1</v>
-      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
           <t>long</t>
@@ -2989,278 +2993,16 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>19.854</v>
+        <v>155.36</v>
       </c>
       <c r="H68" t="n">
-        <v>19.901</v>
+        <v>154.12</v>
       </c>
       <c r="I68" t="n">
-        <v>0.0470000000000006</v>
+        <v>-1.240000000000009</v>
       </c>
       <c r="J68" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>AFKS</t>
-        </is>
-      </c>
-      <c r="C69" t="b">
-        <v>1</v>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
-        <v>19.811</v>
-      </c>
-      <c r="H69" t="n">
-        <v>19.826</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.01500000000000057</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>SIBN</t>
-        </is>
-      </c>
-      <c r="C70" t="b">
-        <v>1</v>
-      </c>
-      <c r="D70" t="b">
-        <v>1</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
-        <v>683.45</v>
-      </c>
-      <c r="H70" t="n">
-        <v>681.15</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2.300000000000068</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>SIBN</t>
-        </is>
-      </c>
-      <c r="C71" t="b">
-        <v>1</v>
-      </c>
-      <c r="D71" t="b">
-        <v>1</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="G71" t="n">
-        <v>678.1</v>
-      </c>
-      <c r="H71" t="n">
-        <v>679.8</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1.699999999999932</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>SIBN</t>
-        </is>
-      </c>
-      <c r="C72" t="b">
-        <v>1</v>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
-        <v>678.5</v>
-      </c>
-      <c r="H72" t="n">
-        <v>679.3</v>
-      </c>
-      <c r="I72" t="n">
-        <v>-0.7999999999999545</v>
-      </c>
-      <c r="J72" t="n">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>MTLR</t>
-        </is>
-      </c>
-      <c r="C73" t="b">
-        <v>1</v>
-      </c>
-      <c r="D73" t="b">
-        <v>1</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="G73" t="n">
-        <v>150.4</v>
-      </c>
-      <c r="H73" t="n">
-        <v>151.65</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>MTLR</t>
-        </is>
-      </c>
-      <c r="C74" t="b">
-        <v>1</v>
-      </c>
-      <c r="D74" t="b">
-        <v>1</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="G74" t="n">
-        <v>150.57</v>
-      </c>
-      <c r="H74" t="n">
-        <v>151.37</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.8000000000000114</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>MTLR</t>
-        </is>
-      </c>
-      <c r="C75" t="b">
-        <v>1</v>
-      </c>
-      <c r="D75" t="b">
-        <v>1</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="G75" t="n">
-        <v>150.64</v>
-      </c>
-      <c r="H75" t="n">
-        <v>150.86</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.2200000000000273</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.15</v>
+        <v>-0.8</v>
       </c>
     </row>
   </sheetData>
@@ -3274,7 +3016,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3317,89 +3059,89 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>SBERP</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.089999999999975</v>
+        <v>2.759999999999991</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3433333333333305</v>
+        <v>0.4599999999999985</v>
       </c>
       <c r="E2" t="n">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>SBERP</t>
+          <t>AFKS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.759999999999991</v>
+        <v>0.3140000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4599999999999985</v>
+        <v>0.06280000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="F3" t="n">
-        <v>0.17</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3140000000000001</v>
+        <v>8.200000000000045</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06280000000000001</v>
+        <v>1.640000000000009</v>
       </c>
       <c r="E4" t="n">
-        <v>1.58</v>
+        <v>0.58</v>
       </c>
       <c r="F4" t="n">
-        <v>0.32</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>MOEX</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.200000000000045</v>
+        <v>1.519999999999982</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.640000000000009</v>
+        <v>0.3799999999999955</v>
       </c>
       <c r="E5" t="n">
-        <v>0.58</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="6">
@@ -3427,243 +3169,243 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.240000000000009</v>
+        <v>9.200000000000273</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3100000000000023</v>
+        <v>2.300000000000068</v>
       </c>
       <c r="E7" t="n">
-        <v>1.24</v>
+        <v>0.89</v>
       </c>
       <c r="F7" t="n">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.11999999999999</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2799999999999976</v>
+        <v>0.09999999999999432</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="F8" t="n">
-        <v>0.22</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>VTBR</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>53.5</v>
+        <v>1.240000000000009</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>13.375</v>
+        <v>0.3100000000000023</v>
       </c>
       <c r="E9" t="n">
-        <v>0.85</v>
+        <v>1.24</v>
       </c>
       <c r="F9" t="n">
-        <v>0.21</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.519999999999982</v>
+        <v>53.5</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3799999999999955</v>
+        <v>13.375</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F10" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3999999999999773</v>
+        <v>1.11999999999999</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09999999999999432</v>
+        <v>0.2799999999999976</v>
       </c>
       <c r="E11" t="n">
-        <v>0.24</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.200000000000273</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>2.300000000000068</v>
+        <v>0.0333333333333338</v>
       </c>
       <c r="E12" t="n">
-        <v>0.89</v>
+        <v>0.2</v>
       </c>
       <c r="F12" t="n">
-        <v>0.22</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4799999999999898</v>
+        <v>0.3299999999999841</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1599999999999966</v>
+        <v>0.1099999999999947</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>CNY</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.200000000000045</v>
+        <v>0.0009999999999994458</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>1.066666666666682</v>
+        <v>0.0003333333333331486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.47</v>
+        <v>0.009999999999999981</v>
       </c>
       <c r="F14" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>MTLR</t>
+          <t>SIBN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.270000000000039</v>
+        <v>3.200000000000045</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7566666666666796</v>
+        <v>1.066666666666682</v>
       </c>
       <c r="E15" t="n">
-        <v>1.51</v>
+        <v>0.47</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1000000000000014</v>
+        <v>0.4799999999999898</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0333333333333338</v>
+        <v>0.1599999999999966</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>CNY</t>
+          <t>MTLR</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0009999999999994458</v>
+        <v>2.270000000000039</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0003333333333331486</v>
+        <v>0.7566666666666796</v>
       </c>
       <c r="E17" t="n">
-        <v>0.009999999999999981</v>
+        <v>1.51</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
@@ -3691,45 +3433,45 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>MRKP</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.07999999999999829</v>
+        <v>0.003499999999999948</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.07999999999999829</v>
+        <v>0.003499999999999948</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.14</v>
+        <v>1.14</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.14</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>MRKP</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.003500000000000003</v>
+        <v>-0.07999999999999829</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.003500000000000003</v>
+        <v>-0.07999999999999829</v>
       </c>
       <c r="E20" t="n">
-        <v>1.14</v>
+        <v>-0.14</v>
       </c>
       <c r="F20" t="n">
-        <v>1.14</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="21">
@@ -3753,24 +3495,6 @@
       <c r="F21" t="n">
         <v>-0.07000000000000001</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>pupse</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
